--- a/Xagros-Map/JOS_Pro_Code.xlsx
+++ b/Xagros-Map/JOS_Pro_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>조선</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>성주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,7 +589,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +597,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -616,8 +624,11 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" s="1">
         <v>8201</v>
       </c>
@@ -627,8 +638,11 @@
       <c r="H4" s="1">
         <v>8203</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>8204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -653,8 +667,11 @@
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F6" s="1">
         <v>8211</v>
       </c>
@@ -670,8 +687,11 @@
       <c r="J6" s="1">
         <v>8215</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -694,7 +714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F8" s="1">
         <v>8221</v>
       </c>
@@ -708,7 +728,7 @@
         <v>8224</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -725,7 +745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F10" s="1">
         <v>8231</v>
       </c>
@@ -733,7 +753,7 @@
         <v>8232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F12" s="1">
         <v>8241</v>
       </c>
@@ -770,7 +790,7 @@
         <v>8244</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -787,7 +807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F14" s="1">
         <v>8251</v>
       </c>
@@ -795,7 +815,7 @@
         <v>8252</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -818,7 +838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F16" s="1">
         <v>8261</v>
       </c>
@@ -921,5 +941,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Xagros-Map/JOS_Pro_Code.xlsx
+++ b/Xagros-Map/JOS_Pro_Code.xlsx
@@ -581,7 +581,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,6 +601,10 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="1">
+        <f>SUM(E3:E20)</f>
+        <v>36</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,7 +617,7 @@
         <v>8200</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -650,7 +654,7 @@
         <v>8210</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>

--- a/Xagros-Map/JOS_Pro_Code.xlsx
+++ b/Xagros-Map/JOS_Pro_Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\Git\euro4\Xagros-Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\Git\euro4-Fork\Xagros-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>사군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +581,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -620,16 +620,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -657,22 +657,22 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -706,16 +706,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -743,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -768,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -805,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -830,16 +830,16 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -867,16 +867,16 @@
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
@@ -904,22 +904,22 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">

--- a/Xagros-Map/JOS_Pro_Code.xlsx
+++ b/Xagros-Map/JOS_Pro_Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\Git\euro4-Fork\Xagros-Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\Git\euro4\Xagros-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,6 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>한양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +211,6 @@
   </si>
   <si>
     <t>사군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +581,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -620,16 +620,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -657,22 +657,22 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -706,16 +706,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -743,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -768,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -805,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -830,16 +830,16 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -867,16 +867,16 @@
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
@@ -904,22 +904,22 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
